--- a/Data/Excel_Wide/camino_autonomous_comm_wide.xlsx
+++ b/Data/Excel_Wide/camino_autonomous_comm_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y225"/>
+  <dimension ref="A1:Y227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,37 +573,37 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="E2" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="F2" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="G2" t="n">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="H2" t="n">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="I2" t="n">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J2" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L2" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N2" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>546</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="3">
@@ -652,40 +652,40 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>391</v>
+        <v>782</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="G3" t="n">
-        <v>235</v>
+        <v>470</v>
       </c>
       <c r="H3" t="n">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="I3" t="n">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="J3" t="n">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="K3" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="L3" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M3" t="n">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="N3" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O3" t="n">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1145</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="4">
@@ -731,40 +731,40 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1145</v>
+        <v>2290</v>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="F4" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="G4" t="n">
-        <v>305</v>
+        <v>610</v>
       </c>
       <c r="H4" t="n">
-        <v>129</v>
+        <v>258</v>
       </c>
       <c r="I4" t="n">
-        <v>161</v>
+        <v>322</v>
       </c>
       <c r="J4" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="M4" t="n">
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="N4" t="n">
-        <v>227</v>
+        <v>454</v>
       </c>
       <c r="O4" t="n">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>2695</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="5">
@@ -810,43 +810,43 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4282</v>
+        <v>8564</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1039</v>
+        <v>2078</v>
       </c>
       <c r="G5" t="n">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="H5" t="n">
-        <v>894</v>
+        <v>1788</v>
       </c>
       <c r="I5" t="n">
-        <v>925</v>
+        <v>1850</v>
       </c>
       <c r="J5" t="n">
-        <v>891</v>
+        <v>1782</v>
       </c>
       <c r="K5" t="n">
-        <v>274</v>
+        <v>548</v>
       </c>
       <c r="L5" t="n">
-        <v>622</v>
+        <v>1244</v>
       </c>
       <c r="M5" t="n">
-        <v>417</v>
+        <v>834</v>
       </c>
       <c r="N5" t="n">
-        <v>1007</v>
+        <v>2014</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>379</v>
+        <v>758</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>12778</v>
+        <v>25556</v>
       </c>
     </row>
     <row r="6">
@@ -889,37 +889,37 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>3781</v>
+        <v>7562</v>
       </c>
       <c r="E6" t="n">
-        <v>374</v>
+        <v>748</v>
       </c>
       <c r="F6" t="n">
-        <v>639</v>
+        <v>1278</v>
       </c>
       <c r="G6" t="n">
-        <v>1565</v>
+        <v>3130</v>
       </c>
       <c r="H6" t="n">
-        <v>1023</v>
+        <v>2046</v>
       </c>
       <c r="I6" t="n">
-        <v>831</v>
+        <v>1662</v>
       </c>
       <c r="J6" t="n">
-        <v>685</v>
+        <v>1370</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>598</v>
+        <v>1196</v>
       </c>
       <c r="M6" t="n">
-        <v>410</v>
+        <v>820</v>
       </c>
       <c r="N6" t="n">
-        <v>942</v>
+        <v>1884</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353</v>
+        <v>706</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>11201</v>
+        <v>22402</v>
       </c>
     </row>
     <row r="7">
@@ -968,37 +968,37 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>3306</v>
+        <v>6612</v>
       </c>
       <c r="E7" t="n">
-        <v>499</v>
+        <v>998</v>
       </c>
       <c r="F7" t="n">
-        <v>1187</v>
+        <v>2374</v>
       </c>
       <c r="G7" t="n">
-        <v>1963</v>
+        <v>3926</v>
       </c>
       <c r="H7" t="n">
-        <v>1530</v>
+        <v>3060</v>
       </c>
       <c r="I7" t="n">
-        <v>1059</v>
+        <v>2118</v>
       </c>
       <c r="J7" t="n">
-        <v>1034</v>
+        <v>2068</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>627</v>
+        <v>1254</v>
       </c>
       <c r="M7" t="n">
-        <v>479</v>
+        <v>958</v>
       </c>
       <c r="N7" t="n">
-        <v>1198</v>
+        <v>2396</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>370</v>
+        <v>740</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>13252</v>
+        <v>26504</v>
       </c>
     </row>
     <row r="8">
@@ -1047,43 +1047,43 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>2440</v>
+        <v>4880</v>
       </c>
       <c r="E8" t="n">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="F8" t="n">
-        <v>1983</v>
+        <v>3966</v>
       </c>
       <c r="G8" t="n">
-        <v>5124</v>
+        <v>10248</v>
       </c>
       <c r="H8" t="n">
-        <v>2177</v>
+        <v>4354</v>
       </c>
       <c r="I8" t="n">
-        <v>2709</v>
+        <v>5418</v>
       </c>
       <c r="J8" t="n">
-        <v>3413</v>
+        <v>6826</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1442</v>
+        <v>2884</v>
       </c>
       <c r="M8" t="n">
-        <v>1448</v>
+        <v>2896</v>
       </c>
       <c r="N8" t="n">
-        <v>3207</v>
+        <v>6414</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1194</v>
+        <v>2388</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>25777</v>
+        <v>51554</v>
       </c>
     </row>
     <row r="9">
@@ -1126,49 +1126,49 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>2758</v>
+        <v>5516</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>4442</v>
+        <v>8884</v>
       </c>
       <c r="G9" t="n">
-        <v>7868</v>
+        <v>15736</v>
       </c>
       <c r="H9" t="n">
-        <v>4527</v>
+        <v>9054</v>
       </c>
       <c r="I9" t="n">
-        <v>2452</v>
+        <v>4904</v>
       </c>
       <c r="J9" t="n">
-        <v>5795</v>
+        <v>11590</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1938</v>
+        <v>3876</v>
       </c>
       <c r="M9" t="n">
-        <v>1986</v>
+        <v>3972</v>
       </c>
       <c r="N9" t="n">
-        <v>3079</v>
+        <v>6158</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1014</v>
+        <v>2028</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>36859</v>
+        <v>73718</v>
       </c>
     </row>
     <row r="10">
@@ -1205,37 +1205,37 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>3144</v>
+        <v>6288</v>
       </c>
       <c r="E10" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F10" t="n">
-        <v>1556</v>
+        <v>3112</v>
       </c>
       <c r="G10" t="n">
-        <v>2814</v>
+        <v>5628</v>
       </c>
       <c r="H10" t="n">
-        <v>1617</v>
+        <v>3234</v>
       </c>
       <c r="I10" t="n">
-        <v>1492</v>
+        <v>2984</v>
       </c>
       <c r="J10" t="n">
-        <v>1936</v>
+        <v>3872</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>628</v>
+        <v>1256</v>
       </c>
       <c r="M10" t="n">
-        <v>731</v>
+        <v>1462</v>
       </c>
       <c r="N10" t="n">
-        <v>1826</v>
+        <v>3652</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>387</v>
+        <v>774</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>16631</v>
+        <v>33262</v>
       </c>
     </row>
     <row r="11">
@@ -1284,37 +1284,37 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>2861</v>
+        <v>5722</v>
       </c>
       <c r="E11" t="n">
-        <v>365</v>
+        <v>730</v>
       </c>
       <c r="F11" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="G11" t="n">
-        <v>1848</v>
+        <v>3696</v>
       </c>
       <c r="H11" t="n">
-        <v>872</v>
+        <v>1744</v>
       </c>
       <c r="I11" t="n">
-        <v>622</v>
+        <v>1244</v>
       </c>
       <c r="J11" t="n">
-        <v>780</v>
+        <v>1560</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>457</v>
+        <v>914</v>
       </c>
       <c r="M11" t="n">
-        <v>258</v>
+        <v>516</v>
       </c>
       <c r="N11" t="n">
-        <v>853</v>
+        <v>1706</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>228</v>
+        <v>456</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>9844</v>
+        <v>19688</v>
       </c>
     </row>
     <row r="12">
@@ -1363,37 +1363,37 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>1542</v>
+        <v>3084</v>
       </c>
       <c r="E12" t="n">
-        <v>158</v>
+        <v>316</v>
       </c>
       <c r="F12" t="n">
-        <v>144</v>
+        <v>288</v>
       </c>
       <c r="G12" t="n">
-        <v>390</v>
+        <v>780</v>
       </c>
       <c r="H12" t="n">
-        <v>223</v>
+        <v>446</v>
       </c>
       <c r="I12" t="n">
-        <v>186</v>
+        <v>372</v>
       </c>
       <c r="J12" t="n">
-        <v>156</v>
+        <v>312</v>
       </c>
       <c r="K12" t="n">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="L12" t="n">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="M12" t="n">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="N12" t="n">
-        <v>168</v>
+        <v>336</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>3301</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="13">
@@ -1442,37 +1442,37 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>1963</v>
+        <v>3926</v>
       </c>
       <c r="E13" t="n">
-        <v>164</v>
+        <v>328</v>
       </c>
       <c r="F13" t="n">
-        <v>168</v>
+        <v>336</v>
       </c>
       <c r="G13" t="n">
-        <v>324</v>
+        <v>648</v>
       </c>
       <c r="H13" t="n">
-        <v>154</v>
+        <v>308</v>
       </c>
       <c r="I13" t="n">
-        <v>134</v>
+        <v>268</v>
       </c>
       <c r="J13" t="n">
-        <v>141</v>
+        <v>282</v>
       </c>
       <c r="K13" t="n">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="L13" t="n">
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="M13" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="N13" t="n">
-        <v>169</v>
+        <v>338</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>3437</v>
+        <v>6874</v>
       </c>
     </row>
     <row r="14">
@@ -1521,52 +1521,52 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G14" t="n">
+        <v>56</v>
+      </c>
+      <c r="H14" t="n">
         <v>28</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
+        <v>12</v>
+      </c>
+      <c r="J14" t="n">
+        <v>46</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>18</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>28</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>14</v>
       </c>
-      <c r="I14" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>23</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>9</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>14</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>7</v>
-      </c>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>164</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15">
@@ -1600,40 +1600,40 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>201</v>
+        <v>402</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="G15" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="H15" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J15" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="K15" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>391</v>
+        <v>782</v>
       </c>
     </row>
     <row r="16">
@@ -1679,43 +1679,43 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
+        <v>436</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>466</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1442</v>
+      </c>
+      <c r="H16" t="n">
+        <v>472</v>
+      </c>
+      <c r="I16" t="n">
+        <v>238</v>
+      </c>
+      <c r="J16" t="n">
+        <v>234</v>
+      </c>
+      <c r="K16" t="n">
+        <v>104</v>
+      </c>
+      <c r="L16" t="n">
         <v>218</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>233</v>
-      </c>
-      <c r="G16" t="n">
-        <v>721</v>
-      </c>
-      <c r="H16" t="n">
-        <v>236</v>
-      </c>
-      <c r="I16" t="n">
-        <v>119</v>
-      </c>
-      <c r="J16" t="n">
-        <v>117</v>
-      </c>
-      <c r="K16" t="n">
-        <v>52</v>
-      </c>
-      <c r="L16" t="n">
-        <v>109</v>
-      </c>
       <c r="M16" t="n">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="N16" t="n">
-        <v>212</v>
+        <v>424</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>2179</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="17">
@@ -1758,43 +1758,43 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>118</v>
+        <v>236</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>193</v>
+        <v>386</v>
       </c>
       <c r="G17" t="n">
-        <v>251</v>
+        <v>502</v>
       </c>
       <c r="H17" t="n">
-        <v>137</v>
+        <v>274</v>
       </c>
       <c r="I17" t="n">
-        <v>194</v>
+        <v>388</v>
       </c>
       <c r="J17" t="n">
-        <v>141</v>
+        <v>282</v>
       </c>
       <c r="K17" t="n">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="L17" t="n">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="M17" t="n">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="N17" t="n">
-        <v>136</v>
+        <v>272</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1575</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="18">
@@ -1837,46 +1837,46 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>444</v>
+        <v>888</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>355</v>
+        <v>710</v>
       </c>
       <c r="G18" t="n">
-        <v>586</v>
+        <v>1172</v>
       </c>
       <c r="H18" t="n">
-        <v>490</v>
+        <v>980</v>
       </c>
       <c r="I18" t="n">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="J18" t="n">
-        <v>249</v>
+        <v>498</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>328</v>
+        <v>656</v>
       </c>
       <c r="M18" t="n">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="N18" t="n">
-        <v>333</v>
+        <v>666</v>
       </c>
       <c r="O18" t="n">
-        <v>149</v>
+        <v>298</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>3455</v>
+        <v>6910</v>
       </c>
     </row>
     <row r="19">
@@ -1916,46 +1916,46 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>336</v>
+        <v>672</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>477</v>
+        <v>954</v>
       </c>
       <c r="G19" t="n">
-        <v>850</v>
+        <v>1700</v>
       </c>
       <c r="H19" t="n">
-        <v>840</v>
+        <v>1680</v>
       </c>
       <c r="I19" t="n">
-        <v>369</v>
+        <v>738</v>
       </c>
       <c r="J19" t="n">
-        <v>494</v>
+        <v>988</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>481</v>
+        <v>962</v>
       </c>
       <c r="M19" t="n">
-        <v>155</v>
+        <v>310</v>
       </c>
       <c r="N19" t="n">
-        <v>702</v>
+        <v>1404</v>
       </c>
       <c r="O19" t="n">
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>148</v>
+        <v>296</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>5019</v>
+        <v>10038</v>
       </c>
     </row>
     <row r="20">
@@ -1995,49 +1995,49 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>548</v>
+        <v>1096</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1535</v>
+        <v>3070</v>
       </c>
       <c r="G20" t="n">
-        <v>2266</v>
+        <v>4532</v>
       </c>
       <c r="H20" t="n">
-        <v>1409</v>
+        <v>2818</v>
       </c>
       <c r="I20" t="n">
-        <v>1033</v>
+        <v>2066</v>
       </c>
       <c r="J20" t="n">
-        <v>2113</v>
+        <v>4226</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="M20" t="n">
-        <v>478</v>
+        <v>956</v>
       </c>
       <c r="N20" t="n">
-        <v>1359</v>
+        <v>2718</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>513</v>
+        <v>1026</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>401</v>
+        <v>802</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>12855</v>
+        <v>25710</v>
       </c>
     </row>
     <row r="21">
@@ -2074,49 +2074,49 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>626</v>
+        <v>1252</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2587</v>
+        <v>5174</v>
       </c>
       <c r="G21" t="n">
-        <v>2767</v>
+        <v>5534</v>
       </c>
       <c r="H21" t="n">
-        <v>3156</v>
+        <v>6312</v>
       </c>
       <c r="I21" t="n">
-        <v>1019</v>
+        <v>2038</v>
       </c>
       <c r="J21" t="n">
-        <v>2095</v>
+        <v>4190</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1636</v>
+        <v>3272</v>
       </c>
       <c r="M21" t="n">
-        <v>646</v>
+        <v>1292</v>
       </c>
       <c r="N21" t="n">
-        <v>1531</v>
+        <v>3062</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>433</v>
+        <v>866</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>527</v>
+        <v>1054</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>17023</v>
+        <v>34046</v>
       </c>
     </row>
     <row r="22">
@@ -2153,37 +2153,37 @@
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>565</v>
+        <v>1130</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>660</v>
+        <v>1320</v>
       </c>
       <c r="G22" t="n">
-        <v>1131</v>
+        <v>2262</v>
       </c>
       <c r="H22" t="n">
-        <v>937</v>
+        <v>1874</v>
       </c>
       <c r="I22" t="n">
-        <v>611</v>
+        <v>1222</v>
       </c>
       <c r="J22" t="n">
-        <v>803</v>
+        <v>1606</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="M22" t="n">
-        <v>203</v>
+        <v>406</v>
       </c>
       <c r="N22" t="n">
-        <v>782</v>
+        <v>1564</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2192,10 +2192,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>185</v>
+        <v>370</v>
       </c>
       <c r="R22" t="n">
-        <v>137</v>
+        <v>274</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>6464</v>
+        <v>12928</v>
       </c>
     </row>
     <row r="23">
@@ -2232,37 +2232,37 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>324</v>
+        <v>648</v>
       </c>
       <c r="E23" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="F23" t="n">
-        <v>281</v>
+        <v>562</v>
       </c>
       <c r="G23" t="n">
-        <v>523</v>
+        <v>1046</v>
       </c>
       <c r="H23" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="I23" t="n">
-        <v>173</v>
+        <v>346</v>
       </c>
       <c r="J23" t="n">
-        <v>291</v>
+        <v>582</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="M23" t="n">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="N23" t="n">
-        <v>292</v>
+        <v>584</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>2663</v>
+        <v>5326</v>
       </c>
     </row>
     <row r="24">
@@ -2311,37 +2311,37 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="G24" t="n">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="H24" t="n">
+        <v>152</v>
+      </c>
+      <c r="I24" t="n">
+        <v>62</v>
+      </c>
+      <c r="J24" t="n">
+        <v>68</v>
+      </c>
+      <c r="K24" t="n">
+        <v>104</v>
+      </c>
+      <c r="L24" t="n">
         <v>76</v>
       </c>
-      <c r="I24" t="n">
-        <v>31</v>
-      </c>
-      <c r="J24" t="n">
-        <v>34</v>
-      </c>
-      <c r="K24" t="n">
-        <v>52</v>
-      </c>
-      <c r="L24" t="n">
-        <v>38</v>
-      </c>
       <c r="M24" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N24" t="n">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>655</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="25">
@@ -2390,37 +2390,37 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="G25" t="n">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="H25" t="n">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="I25" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="J25" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="K25" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L25" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M25" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N25" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>440</v>
+        <v>880</v>
       </c>
     </row>
     <row r="26">
@@ -2469,49 +2469,49 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
+        <v>88</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>46</v>
+      </c>
+      <c r="G26" t="n">
         <v>44</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>23</v>
-      </c>
-      <c r="G26" t="n">
-        <v>22</v>
-      </c>
       <c r="H26" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I26" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J26" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L26" t="n">
+        <v>24</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>16</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>12</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>8</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>6</v>
-      </c>
       <c r="R26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>194</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27">
@@ -2548,37 +2548,37 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="G27" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H27" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="I27" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J27" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K27" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L27" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M27" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>244</v>
+        <v>488</v>
       </c>
     </row>
     <row r="28">
@@ -2627,43 +2627,43 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="G28" t="n">
-        <v>155</v>
+        <v>310</v>
       </c>
       <c r="H28" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="I28" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J28" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="K28" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="N28" t="n">
+        <v>92</v>
+      </c>
+      <c r="O28" t="n">
         <v>46</v>
       </c>
-      <c r="O28" t="n">
-        <v>23</v>
-      </c>
       <c r="P28" t="n">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>557</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="29">
@@ -2706,43 +2706,43 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>540</v>
+        <v>1080</v>
       </c>
       <c r="E29" t="n">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="F29" t="n">
-        <v>463</v>
+        <v>926</v>
       </c>
       <c r="G29" t="n">
-        <v>935</v>
+        <v>1870</v>
       </c>
       <c r="H29" t="n">
-        <v>462</v>
+        <v>924</v>
       </c>
       <c r="I29" t="n">
-        <v>279</v>
+        <v>558</v>
       </c>
       <c r="J29" t="n">
-        <v>790</v>
+        <v>1580</v>
       </c>
       <c r="K29" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="L29" t="n">
-        <v>284</v>
+        <v>568</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>172</v>
+        <v>344</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>4550</v>
+        <v>9100</v>
       </c>
     </row>
     <row r="30">
@@ -2785,46 +2785,46 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>537</v>
+        <v>1074</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>271</v>
+        <v>542</v>
       </c>
       <c r="G30" t="n">
-        <v>604</v>
+        <v>1208</v>
       </c>
       <c r="H30" t="n">
-        <v>521</v>
+        <v>1042</v>
       </c>
       <c r="I30" t="n">
-        <v>238</v>
+        <v>476</v>
       </c>
       <c r="J30" t="n">
-        <v>328</v>
+        <v>656</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>271</v>
+        <v>542</v>
       </c>
       <c r="M30" t="n">
-        <v>144</v>
+        <v>288</v>
       </c>
       <c r="N30" t="n">
-        <v>366</v>
+        <v>732</v>
       </c>
       <c r="O30" t="n">
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>3483</v>
+        <v>6966</v>
       </c>
     </row>
     <row r="31">
@@ -2864,37 +2864,37 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>297</v>
+        <v>594</v>
       </c>
       <c r="E31" t="n">
-        <v>172</v>
+        <v>344</v>
       </c>
       <c r="F31" t="n">
-        <v>561</v>
+        <v>1122</v>
       </c>
       <c r="G31" t="n">
-        <v>736</v>
+        <v>1472</v>
       </c>
       <c r="H31" t="n">
-        <v>819</v>
+        <v>1638</v>
       </c>
       <c r="I31" t="n">
-        <v>376</v>
+        <v>752</v>
       </c>
       <c r="J31" t="n">
-        <v>610</v>
+        <v>1220</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>493</v>
+        <v>986</v>
       </c>
       <c r="M31" t="n">
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="N31" t="n">
-        <v>598</v>
+        <v>1196</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>182</v>
+        <v>364</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>4996</v>
+        <v>9992</v>
       </c>
     </row>
     <row r="32">
@@ -2943,46 +2943,46 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>493</v>
+        <v>986</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1374</v>
+        <v>2748</v>
       </c>
       <c r="G32" t="n">
-        <v>2133</v>
+        <v>4266</v>
       </c>
       <c r="H32" t="n">
-        <v>1336</v>
+        <v>2672</v>
       </c>
       <c r="I32" t="n">
-        <v>980</v>
+        <v>1960</v>
       </c>
       <c r="J32" t="n">
-        <v>2017</v>
+        <v>4034</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>925</v>
+        <v>1850</v>
       </c>
       <c r="M32" t="n">
-        <v>542</v>
+        <v>1084</v>
       </c>
       <c r="N32" t="n">
-        <v>1343</v>
+        <v>2686</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>672</v>
+        <v>1344</v>
       </c>
       <c r="Q32" t="n">
-        <v>342</v>
+        <v>684</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>12157</v>
+        <v>24314</v>
       </c>
     </row>
     <row r="33">
@@ -3022,49 +3022,49 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>663</v>
+        <v>1326</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>2378</v>
+        <v>4756</v>
       </c>
       <c r="G33" t="n">
-        <v>2421</v>
+        <v>4842</v>
       </c>
       <c r="H33" t="n">
-        <v>2885</v>
+        <v>5770</v>
       </c>
       <c r="I33" t="n">
-        <v>860</v>
+        <v>1720</v>
       </c>
       <c r="J33" t="n">
-        <v>2052</v>
+        <v>4104</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1517</v>
+        <v>3034</v>
       </c>
       <c r="M33" t="n">
-        <v>670</v>
+        <v>1340</v>
       </c>
       <c r="N33" t="n">
-        <v>1352</v>
+        <v>2704</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>401</v>
+        <v>802</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>567</v>
+        <v>1134</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>15766</v>
+        <v>31532</v>
       </c>
     </row>
     <row r="34">
@@ -3101,37 +3101,37 @@
         <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>509</v>
+        <v>1018</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>686</v>
+        <v>1372</v>
       </c>
       <c r="G34" t="n">
-        <v>1093</v>
+        <v>2186</v>
       </c>
       <c r="H34" t="n">
-        <v>862</v>
+        <v>1724</v>
       </c>
       <c r="I34" t="n">
-        <v>536</v>
+        <v>1072</v>
       </c>
       <c r="J34" t="n">
-        <v>796</v>
+        <v>1592</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>454</v>
+        <v>908</v>
       </c>
       <c r="M34" t="n">
-        <v>219</v>
+        <v>438</v>
       </c>
       <c r="N34" t="n">
-        <v>858</v>
+        <v>1716</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>191</v>
+        <v>382</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>166</v>
+        <v>332</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>6370</v>
+        <v>12740</v>
       </c>
     </row>
     <row r="35">
@@ -3180,46 +3180,46 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>385</v>
+        <v>770</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>335</v>
+        <v>670</v>
       </c>
       <c r="G35" t="n">
-        <v>550</v>
+        <v>1100</v>
       </c>
       <c r="H35" t="n">
-        <v>407</v>
+        <v>814</v>
       </c>
       <c r="I35" t="n">
-        <v>168</v>
+        <v>336</v>
       </c>
       <c r="J35" t="n">
-        <v>286</v>
+        <v>572</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>249</v>
+        <v>498</v>
       </c>
       <c r="M35" t="n">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="N35" t="n">
-        <v>284</v>
+        <v>568</v>
       </c>
       <c r="O35" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>2873</v>
+        <v>5746</v>
       </c>
     </row>
     <row r="36">
@@ -3259,37 +3259,37 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>153</v>
+        <v>306</v>
       </c>
       <c r="E36" t="n">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="F36" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="H36" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="I36" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J36" t="n">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="K36" t="n">
+        <v>160</v>
+      </c>
+      <c r="L36" t="n">
         <v>80</v>
       </c>
-      <c r="L36" t="n">
-        <v>40</v>
-      </c>
       <c r="M36" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="N36" t="n">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>849</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="37">
@@ -3338,37 +3338,37 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="E37" t="n">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="F37" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G37" t="n">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="H37" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I37" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="J37" t="n">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="K37" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>540</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="38">
@@ -3417,37 +3417,37 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G38" t="n">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="H38" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I38" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J38" t="n">
+        <v>44</v>
+      </c>
+      <c r="K38" t="n">
+        <v>18</v>
+      </c>
+      <c r="L38" t="n">
         <v>22</v>
       </c>
-      <c r="K38" t="n">
-        <v>9</v>
-      </c>
-      <c r="L38" t="n">
-        <v>11</v>
-      </c>
       <c r="M38" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N38" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>182</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39">
@@ -3496,40 +3496,40 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
+        <v>84</v>
+      </c>
+      <c r="G39" t="n">
+        <v>226</v>
+      </c>
+      <c r="H39" t="n">
+        <v>52</v>
+      </c>
+      <c r="I39" t="n">
+        <v>30</v>
+      </c>
+      <c r="J39" t="n">
+        <v>36</v>
+      </c>
+      <c r="K39" t="n">
+        <v>22</v>
+      </c>
+      <c r="L39" t="n">
+        <v>20</v>
+      </c>
+      <c r="M39" t="n">
+        <v>22</v>
+      </c>
+      <c r="N39" t="n">
         <v>42</v>
       </c>
-      <c r="G39" t="n">
-        <v>113</v>
-      </c>
-      <c r="H39" t="n">
-        <v>26</v>
-      </c>
-      <c r="I39" t="n">
-        <v>15</v>
-      </c>
-      <c r="J39" t="n">
-        <v>18</v>
-      </c>
-      <c r="K39" t="n">
-        <v>11</v>
-      </c>
-      <c r="L39" t="n">
-        <v>10</v>
-      </c>
-      <c r="M39" t="n">
-        <v>11</v>
-      </c>
-      <c r="N39" t="n">
-        <v>21</v>
-      </c>
       <c r="O39" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>316</v>
+        <v>632</v>
       </c>
     </row>
     <row r="40">
@@ -3575,40 +3575,40 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="G40" t="n">
-        <v>345</v>
+        <v>690</v>
       </c>
       <c r="H40" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="I40" t="n">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J40" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="K40" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="L40" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M40" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="N40" t="n">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="O40" t="n">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1005</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="41">
@@ -3654,43 +3654,43 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>439</v>
+        <v>878</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>449</v>
+        <v>898</v>
       </c>
       <c r="G41" t="n">
-        <v>673</v>
+        <v>1346</v>
       </c>
       <c r="H41" t="n">
-        <v>532</v>
+        <v>1064</v>
       </c>
       <c r="I41" t="n">
-        <v>229</v>
+        <v>458</v>
       </c>
       <c r="J41" t="n">
-        <v>652</v>
+        <v>1304</v>
       </c>
       <c r="K41" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="L41" t="n">
-        <v>253</v>
+        <v>506</v>
       </c>
       <c r="M41" t="n">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="N41" t="n">
-        <v>501</v>
+        <v>1002</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>119</v>
+        <v>238</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4079</v>
+        <v>8158</v>
       </c>
     </row>
     <row r="42">
@@ -3733,46 +3733,46 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>434</v>
+        <v>868</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>380</v>
+        <v>760</v>
       </c>
       <c r="G42" t="n">
-        <v>819</v>
+        <v>1638</v>
       </c>
       <c r="H42" t="n">
-        <v>729</v>
+        <v>1458</v>
       </c>
       <c r="I42" t="n">
-        <v>414</v>
+        <v>828</v>
       </c>
       <c r="J42" t="n">
-        <v>364</v>
+        <v>728</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>296</v>
+        <v>592</v>
       </c>
       <c r="M42" t="n">
-        <v>174</v>
+        <v>348</v>
       </c>
       <c r="N42" t="n">
-        <v>430</v>
+        <v>860</v>
       </c>
       <c r="O42" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>131</v>
+        <v>262</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>4299</v>
+        <v>8598</v>
       </c>
     </row>
     <row r="43">
@@ -3812,43 +3812,43 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>287</v>
+        <v>574</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>536</v>
+        <v>1072</v>
       </c>
       <c r="G43" t="n">
-        <v>979</v>
+        <v>1958</v>
       </c>
       <c r="H43" t="n">
-        <v>848</v>
+        <v>1696</v>
       </c>
       <c r="I43" t="n">
-        <v>399</v>
+        <v>798</v>
       </c>
       <c r="J43" t="n">
-        <v>626</v>
+        <v>1252</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>485</v>
+        <v>970</v>
       </c>
       <c r="M43" t="n">
-        <v>204</v>
+        <v>408</v>
       </c>
       <c r="N43" t="n">
-        <v>673</v>
+        <v>1346</v>
       </c>
       <c r="O43" t="n">
-        <v>151</v>
+        <v>302</v>
       </c>
       <c r="P43" t="n">
-        <v>181</v>
+        <v>362</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>5369</v>
+        <v>10738</v>
       </c>
     </row>
     <row r="44">
@@ -3891,46 +3891,46 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>513</v>
+        <v>1026</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1344</v>
+        <v>2688</v>
       </c>
       <c r="G44" t="n">
-        <v>2199</v>
+        <v>4398</v>
       </c>
       <c r="H44" t="n">
-        <v>1245</v>
+        <v>2490</v>
       </c>
       <c r="I44" t="n">
-        <v>1137</v>
+        <v>2274</v>
       </c>
       <c r="J44" t="n">
-        <v>1955</v>
+        <v>3910</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>935</v>
+        <v>1870</v>
       </c>
       <c r="M44" t="n">
-        <v>484</v>
+        <v>968</v>
       </c>
       <c r="N44" t="n">
-        <v>1369</v>
+        <v>2738</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>662</v>
+        <v>1324</v>
       </c>
       <c r="Q44" t="n">
-        <v>333</v>
+        <v>666</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>12176</v>
+        <v>24352</v>
       </c>
     </row>
     <row r="45">
@@ -3970,37 +3970,37 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>683</v>
+        <v>1366</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2745</v>
+        <v>5490</v>
       </c>
       <c r="G45" t="n">
-        <v>2686</v>
+        <v>5372</v>
       </c>
       <c r="H45" t="n">
-        <v>2811</v>
+        <v>5622</v>
       </c>
       <c r="I45" t="n">
-        <v>831</v>
+        <v>1662</v>
       </c>
       <c r="J45" t="n">
-        <v>2174</v>
+        <v>4348</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>1230</v>
+        <v>2460</v>
       </c>
       <c r="M45" t="n">
-        <v>693</v>
+        <v>1386</v>
       </c>
       <c r="N45" t="n">
-        <v>1487</v>
+        <v>2974</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -4009,10 +4009,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>381</v>
+        <v>762</v>
       </c>
       <c r="R45" t="n">
-        <v>609</v>
+        <v>1218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>16330</v>
+        <v>32660</v>
       </c>
     </row>
     <row r="46">
@@ -4049,46 +4049,46 @@
         <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>691</v>
+        <v>1382</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="G46" t="n">
-        <v>1173</v>
+        <v>2346</v>
       </c>
       <c r="H46" t="n">
-        <v>907</v>
+        <v>1814</v>
       </c>
       <c r="I46" t="n">
-        <v>555</v>
+        <v>1110</v>
       </c>
       <c r="J46" t="n">
-        <v>898</v>
+        <v>1796</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>442</v>
+        <v>884</v>
       </c>
       <c r="M46" t="n">
-        <v>283</v>
+        <v>566</v>
       </c>
       <c r="N46" t="n">
-        <v>786</v>
+        <v>1572</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>145</v>
+        <v>290</v>
       </c>
       <c r="Q46" t="n">
-        <v>206</v>
+        <v>412</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>6806</v>
+        <v>13612</v>
       </c>
     </row>
     <row r="47">
@@ -18254,6 +18254,164 @@
       </c>
       <c r="Y225" t="n">
         <v>46620</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="B226" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C226" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1405</v>
+      </c>
+      <c r="E226" t="n">
+        <v>140</v>
+      </c>
+      <c r="F226" t="n">
+        <v>440</v>
+      </c>
+      <c r="G226" t="n">
+        <v>852</v>
+      </c>
+      <c r="H226" t="n">
+        <v>463</v>
+      </c>
+      <c r="I226" t="n">
+        <v>186</v>
+      </c>
+      <c r="J226" t="n">
+        <v>827</v>
+      </c>
+      <c r="K226" t="n">
+        <v>344</v>
+      </c>
+      <c r="L226" t="n">
+        <v>98</v>
+      </c>
+      <c r="M226" t="n">
+        <v>131</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" t="n">
+        <v>205</v>
+      </c>
+      <c r="P226" t="n">
+        <v>79</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>39</v>
+      </c>
+      <c r="R226" t="n">
+        <v>84</v>
+      </c>
+      <c r="S226" t="n">
+        <v>27</v>
+      </c>
+      <c r="T226" t="n">
+        <v>11</v>
+      </c>
+      <c r="U226" t="n">
+        <v>1</v>
+      </c>
+      <c r="V226" t="n">
+        <v>46</v>
+      </c>
+      <c r="W226" t="n">
+        <v>4902</v>
+      </c>
+      <c r="X226" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>10283</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="B227" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C227" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1163</v>
+      </c>
+      <c r="E227" t="n">
+        <v>49</v>
+      </c>
+      <c r="F227" t="n">
+        <v>250</v>
+      </c>
+      <c r="G227" t="n">
+        <v>374</v>
+      </c>
+      <c r="H227" t="n">
+        <v>152</v>
+      </c>
+      <c r="I227" t="n">
+        <v>95</v>
+      </c>
+      <c r="J227" t="n">
+        <v>322</v>
+      </c>
+      <c r="K227" t="n">
+        <v>161</v>
+      </c>
+      <c r="L227" t="n">
+        <v>37</v>
+      </c>
+      <c r="M227" t="n">
+        <v>92</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" t="n">
+        <v>52</v>
+      </c>
+      <c r="P227" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>31</v>
+      </c>
+      <c r="R227" t="n">
+        <v>56</v>
+      </c>
+      <c r="S227" t="n">
+        <v>9</v>
+      </c>
+      <c r="T227" t="n">
+        <v>51</v>
+      </c>
+      <c r="U227" t="n">
+        <v>1</v>
+      </c>
+      <c r="V227" t="n">
+        <v>11</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1738</v>
+      </c>
+      <c r="X227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>4667</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel_Wide/camino_autonomous_comm_wide.xlsx
+++ b/Data/Excel_Wide/camino_autonomous_comm_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y227"/>
+  <dimension ref="A1:Y228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,37 +573,37 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="E2" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="F2" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="G2" t="n">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="H2" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="I2" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="J2" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="K2" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M2" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1092</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3">
@@ -652,40 +652,40 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>782</v>
+        <v>391</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="G3" t="n">
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="H3" t="n">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="I3" t="n">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="J3" t="n">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="K3" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="L3" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="M3" t="n">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="N3" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O3" t="n">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>2290</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="4">
@@ -731,40 +731,40 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2290</v>
+        <v>1145</v>
       </c>
       <c r="E4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>160</v>
+      </c>
+      <c r="G4" t="n">
+        <v>305</v>
+      </c>
+      <c r="H4" t="n">
+        <v>129</v>
+      </c>
+      <c r="I4" t="n">
+        <v>161</v>
+      </c>
+      <c r="J4" t="n">
         <v>150</v>
       </c>
-      <c r="F4" t="n">
-        <v>320</v>
-      </c>
-      <c r="G4" t="n">
-        <v>610</v>
-      </c>
-      <c r="H4" t="n">
-        <v>258</v>
-      </c>
-      <c r="I4" t="n">
-        <v>322</v>
-      </c>
-      <c r="J4" t="n">
-        <v>300</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="M4" t="n">
-        <v>334</v>
+        <v>167</v>
       </c>
       <c r="N4" t="n">
-        <v>454</v>
+        <v>227</v>
       </c>
       <c r="O4" t="n">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>5390</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="5">
@@ -810,43 +810,43 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>8564</v>
+        <v>4282</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2078</v>
+        <v>1039</v>
       </c>
       <c r="G5" t="n">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="H5" t="n">
-        <v>1788</v>
+        <v>894</v>
       </c>
       <c r="I5" t="n">
-        <v>1850</v>
+        <v>925</v>
       </c>
       <c r="J5" t="n">
-        <v>1782</v>
+        <v>891</v>
       </c>
       <c r="K5" t="n">
-        <v>548</v>
+        <v>274</v>
       </c>
       <c r="L5" t="n">
-        <v>1244</v>
+        <v>622</v>
       </c>
       <c r="M5" t="n">
-        <v>834</v>
+        <v>417</v>
       </c>
       <c r="N5" t="n">
-        <v>2014</v>
+        <v>1007</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>758</v>
+        <v>379</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>25556</v>
+        <v>12778</v>
       </c>
     </row>
     <row r="6">
@@ -889,37 +889,37 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>7562</v>
+        <v>3781</v>
       </c>
       <c r="E6" t="n">
-        <v>748</v>
+        <v>374</v>
       </c>
       <c r="F6" t="n">
-        <v>1278</v>
+        <v>639</v>
       </c>
       <c r="G6" t="n">
-        <v>3130</v>
+        <v>1565</v>
       </c>
       <c r="H6" t="n">
-        <v>2046</v>
+        <v>1023</v>
       </c>
       <c r="I6" t="n">
-        <v>1662</v>
+        <v>831</v>
       </c>
       <c r="J6" t="n">
-        <v>1370</v>
+        <v>685</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1196</v>
+        <v>598</v>
       </c>
       <c r="M6" t="n">
-        <v>820</v>
+        <v>410</v>
       </c>
       <c r="N6" t="n">
-        <v>1884</v>
+        <v>942</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>706</v>
+        <v>353</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>22402</v>
+        <v>11201</v>
       </c>
     </row>
     <row r="7">
@@ -968,37 +968,37 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6612</v>
+        <v>3306</v>
       </c>
       <c r="E7" t="n">
-        <v>998</v>
+        <v>499</v>
       </c>
       <c r="F7" t="n">
-        <v>2374</v>
+        <v>1187</v>
       </c>
       <c r="G7" t="n">
-        <v>3926</v>
+        <v>1963</v>
       </c>
       <c r="H7" t="n">
-        <v>3060</v>
+        <v>1530</v>
       </c>
       <c r="I7" t="n">
-        <v>2118</v>
+        <v>1059</v>
       </c>
       <c r="J7" t="n">
-        <v>2068</v>
+        <v>1034</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1254</v>
+        <v>627</v>
       </c>
       <c r="M7" t="n">
-        <v>958</v>
+        <v>479</v>
       </c>
       <c r="N7" t="n">
-        <v>2396</v>
+        <v>1198</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>740</v>
+        <v>370</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>26504</v>
+        <v>13252</v>
       </c>
     </row>
     <row r="8">
@@ -1047,43 +1047,43 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>4880</v>
+        <v>2440</v>
       </c>
       <c r="E8" t="n">
-        <v>1280</v>
+        <v>640</v>
       </c>
       <c r="F8" t="n">
-        <v>3966</v>
+        <v>1983</v>
       </c>
       <c r="G8" t="n">
-        <v>10248</v>
+        <v>5124</v>
       </c>
       <c r="H8" t="n">
-        <v>4354</v>
+        <v>2177</v>
       </c>
       <c r="I8" t="n">
-        <v>5418</v>
+        <v>2709</v>
       </c>
       <c r="J8" t="n">
-        <v>6826</v>
+        <v>3413</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2884</v>
+        <v>1442</v>
       </c>
       <c r="M8" t="n">
-        <v>2896</v>
+        <v>1448</v>
       </c>
       <c r="N8" t="n">
-        <v>6414</v>
+        <v>3207</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2388</v>
+        <v>1194</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>51554</v>
+        <v>25777</v>
       </c>
     </row>
     <row r="9">
@@ -1126,49 +1126,49 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>5516</v>
+        <v>2758</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>8884</v>
+        <v>4442</v>
       </c>
       <c r="G9" t="n">
-        <v>15736</v>
+        <v>7868</v>
       </c>
       <c r="H9" t="n">
-        <v>9054</v>
+        <v>4527</v>
       </c>
       <c r="I9" t="n">
-        <v>4904</v>
+        <v>2452</v>
       </c>
       <c r="J9" t="n">
-        <v>11590</v>
+        <v>5795</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3876</v>
+        <v>1938</v>
       </c>
       <c r="M9" t="n">
-        <v>3972</v>
+        <v>1986</v>
       </c>
       <c r="N9" t="n">
-        <v>6158</v>
+        <v>3079</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>2028</v>
+        <v>1014</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>73718</v>
+        <v>36859</v>
       </c>
     </row>
     <row r="10">
@@ -1205,37 +1205,37 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>6288</v>
+        <v>3144</v>
       </c>
       <c r="E10" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F10" t="n">
-        <v>3112</v>
+        <v>1556</v>
       </c>
       <c r="G10" t="n">
-        <v>5628</v>
+        <v>2814</v>
       </c>
       <c r="H10" t="n">
-        <v>3234</v>
+        <v>1617</v>
       </c>
       <c r="I10" t="n">
-        <v>2984</v>
+        <v>1492</v>
       </c>
       <c r="J10" t="n">
-        <v>3872</v>
+        <v>1936</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1256</v>
+        <v>628</v>
       </c>
       <c r="M10" t="n">
-        <v>1462</v>
+        <v>731</v>
       </c>
       <c r="N10" t="n">
-        <v>3652</v>
+        <v>1826</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>774</v>
+        <v>387</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>33262</v>
+        <v>16631</v>
       </c>
     </row>
     <row r="11">
@@ -1284,37 +1284,37 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>5722</v>
+        <v>2861</v>
       </c>
       <c r="E11" t="n">
-        <v>730</v>
+        <v>365</v>
       </c>
       <c r="F11" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="G11" t="n">
-        <v>3696</v>
+        <v>1848</v>
       </c>
       <c r="H11" t="n">
-        <v>1744</v>
+        <v>872</v>
       </c>
       <c r="I11" t="n">
-        <v>1244</v>
+        <v>622</v>
       </c>
       <c r="J11" t="n">
-        <v>1560</v>
+        <v>780</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>914</v>
+        <v>457</v>
       </c>
       <c r="M11" t="n">
-        <v>516</v>
+        <v>258</v>
       </c>
       <c r="N11" t="n">
-        <v>1706</v>
+        <v>853</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>456</v>
+        <v>228</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>19688</v>
+        <v>9844</v>
       </c>
     </row>
     <row r="12">
@@ -1363,37 +1363,37 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>3084</v>
+        <v>1542</v>
       </c>
       <c r="E12" t="n">
-        <v>316</v>
+        <v>158</v>
       </c>
       <c r="F12" t="n">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="G12" t="n">
-        <v>780</v>
+        <v>390</v>
       </c>
       <c r="H12" t="n">
-        <v>446</v>
+        <v>223</v>
       </c>
       <c r="I12" t="n">
-        <v>372</v>
+        <v>186</v>
       </c>
       <c r="J12" t="n">
-        <v>312</v>
+        <v>156</v>
       </c>
       <c r="K12" t="n">
-        <v>448</v>
+        <v>224</v>
       </c>
       <c r="L12" t="n">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="M12" t="n">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="N12" t="n">
-        <v>336</v>
+        <v>168</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>6602</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="13">
@@ -1442,37 +1442,37 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>3926</v>
+        <v>1963</v>
       </c>
       <c r="E13" t="n">
-        <v>328</v>
+        <v>164</v>
       </c>
       <c r="F13" t="n">
-        <v>336</v>
+        <v>168</v>
       </c>
       <c r="G13" t="n">
-        <v>648</v>
+        <v>324</v>
       </c>
       <c r="H13" t="n">
-        <v>308</v>
+        <v>154</v>
       </c>
       <c r="I13" t="n">
-        <v>268</v>
+        <v>134</v>
       </c>
       <c r="J13" t="n">
-        <v>282</v>
+        <v>141</v>
       </c>
       <c r="K13" t="n">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="L13" t="n">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="M13" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="N13" t="n">
-        <v>338</v>
+        <v>169</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>6874</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="14">
@@ -1521,37 +1521,37 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H14" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J14" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1560,13 +1560,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="R14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>328</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
@@ -1600,40 +1600,40 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>402</v>
+        <v>201</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G15" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="H15" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I15" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="K15" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L15" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>782</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16">
@@ -1679,43 +1679,43 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>436</v>
+        <v>218</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>466</v>
+        <v>233</v>
       </c>
       <c r="G16" t="n">
-        <v>1442</v>
+        <v>721</v>
       </c>
       <c r="H16" t="n">
-        <v>472</v>
+        <v>236</v>
       </c>
       <c r="I16" t="n">
-        <v>238</v>
+        <v>119</v>
       </c>
       <c r="J16" t="n">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="K16" t="n">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="L16" t="n">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="M16" t="n">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="N16" t="n">
-        <v>424</v>
+        <v>212</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>4358</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="17">
@@ -1758,43 +1758,43 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>236</v>
+        <v>118</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>386</v>
+        <v>193</v>
       </c>
       <c r="G17" t="n">
-        <v>502</v>
+        <v>251</v>
       </c>
       <c r="H17" t="n">
-        <v>274</v>
+        <v>137</v>
       </c>
       <c r="I17" t="n">
-        <v>388</v>
+        <v>194</v>
       </c>
       <c r="J17" t="n">
-        <v>282</v>
+        <v>141</v>
       </c>
       <c r="K17" t="n">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="L17" t="n">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="M17" t="n">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="N17" t="n">
-        <v>272</v>
+        <v>136</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>286</v>
+        <v>143</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>3150</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="18">
@@ -1837,46 +1837,46 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>888</v>
+        <v>444</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>710</v>
+        <v>355</v>
       </c>
       <c r="G18" t="n">
-        <v>1172</v>
+        <v>586</v>
       </c>
       <c r="H18" t="n">
-        <v>980</v>
+        <v>490</v>
       </c>
       <c r="I18" t="n">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="J18" t="n">
-        <v>498</v>
+        <v>249</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>656</v>
+        <v>328</v>
       </c>
       <c r="M18" t="n">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="N18" t="n">
-        <v>666</v>
+        <v>333</v>
       </c>
       <c r="O18" t="n">
-        <v>298</v>
+        <v>149</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>6910</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="19">
@@ -1916,46 +1916,46 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>672</v>
+        <v>336</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>954</v>
+        <v>477</v>
       </c>
       <c r="G19" t="n">
-        <v>1700</v>
+        <v>850</v>
       </c>
       <c r="H19" t="n">
-        <v>1680</v>
+        <v>840</v>
       </c>
       <c r="I19" t="n">
-        <v>738</v>
+        <v>369</v>
       </c>
       <c r="J19" t="n">
-        <v>988</v>
+        <v>494</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>962</v>
+        <v>481</v>
       </c>
       <c r="M19" t="n">
-        <v>310</v>
+        <v>155</v>
       </c>
       <c r="N19" t="n">
-        <v>1404</v>
+        <v>702</v>
       </c>
       <c r="O19" t="n">
-        <v>334</v>
+        <v>167</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>296</v>
+        <v>148</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>10038</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="20">
@@ -1995,49 +1995,49 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>1096</v>
+        <v>548</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>3070</v>
+        <v>1535</v>
       </c>
       <c r="G20" t="n">
-        <v>4532</v>
+        <v>2266</v>
       </c>
       <c r="H20" t="n">
-        <v>2818</v>
+        <v>1409</v>
       </c>
       <c r="I20" t="n">
-        <v>2066</v>
+        <v>1033</v>
       </c>
       <c r="J20" t="n">
-        <v>4226</v>
+        <v>2113</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="M20" t="n">
-        <v>956</v>
+        <v>478</v>
       </c>
       <c r="N20" t="n">
-        <v>2718</v>
+        <v>1359</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1026</v>
+        <v>513</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>802</v>
+        <v>401</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>25710</v>
+        <v>12855</v>
       </c>
     </row>
     <row r="21">
@@ -2074,49 +2074,49 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>1252</v>
+        <v>626</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>5174</v>
+        <v>2587</v>
       </c>
       <c r="G21" t="n">
-        <v>5534</v>
+        <v>2767</v>
       </c>
       <c r="H21" t="n">
-        <v>6312</v>
+        <v>3156</v>
       </c>
       <c r="I21" t="n">
-        <v>2038</v>
+        <v>1019</v>
       </c>
       <c r="J21" t="n">
-        <v>4190</v>
+        <v>2095</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>3272</v>
+        <v>1636</v>
       </c>
       <c r="M21" t="n">
-        <v>1292</v>
+        <v>646</v>
       </c>
       <c r="N21" t="n">
-        <v>3062</v>
+        <v>1531</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>866</v>
+        <v>433</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1054</v>
+        <v>527</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>34046</v>
+        <v>17023</v>
       </c>
     </row>
     <row r="22">
@@ -2153,37 +2153,37 @@
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>1130</v>
+        <v>565</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1320</v>
+        <v>660</v>
       </c>
       <c r="G22" t="n">
-        <v>2262</v>
+        <v>1131</v>
       </c>
       <c r="H22" t="n">
-        <v>1874</v>
+        <v>937</v>
       </c>
       <c r="I22" t="n">
-        <v>1222</v>
+        <v>611</v>
       </c>
       <c r="J22" t="n">
-        <v>1606</v>
+        <v>803</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="M22" t="n">
-        <v>406</v>
+        <v>203</v>
       </c>
       <c r="N22" t="n">
-        <v>1564</v>
+        <v>782</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2192,10 +2192,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>370</v>
+        <v>185</v>
       </c>
       <c r="R22" t="n">
-        <v>274</v>
+        <v>137</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>12928</v>
+        <v>6464</v>
       </c>
     </row>
     <row r="23">
@@ -2232,37 +2232,37 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>648</v>
+        <v>324</v>
       </c>
       <c r="E23" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="F23" t="n">
-        <v>562</v>
+        <v>281</v>
       </c>
       <c r="G23" t="n">
-        <v>1046</v>
+        <v>523</v>
       </c>
       <c r="H23" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="I23" t="n">
-        <v>346</v>
+        <v>173</v>
       </c>
       <c r="J23" t="n">
-        <v>582</v>
+        <v>291</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>394</v>
+        <v>197</v>
       </c>
       <c r="M23" t="n">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="N23" t="n">
-        <v>584</v>
+        <v>292</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>5326</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="24">
@@ -2311,37 +2311,37 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>278</v>
+        <v>139</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="G24" t="n">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="H24" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="I24" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="J24" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="K24" t="n">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="L24" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="M24" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N24" t="n">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>1310</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25">
@@ -2390,37 +2390,37 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="G25" t="n">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="H25" t="n">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="I25" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="J25" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="K25" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L25" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M25" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N25" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>880</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26">
@@ -2469,38 +2469,38 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="G26" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="H26" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I26" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J26" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="K26" t="n">
+        <v>4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>12</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>8</v>
       </c>
-      <c r="L26" t="n">
-        <v>24</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>16</v>
-      </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
@@ -2508,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>388</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27">
@@ -2548,37 +2548,37 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
+        <v>30</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>32</v>
+      </c>
+      <c r="G27" t="n">
         <v>60</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>64</v>
-      </c>
-      <c r="G27" t="n">
-        <v>120</v>
-      </c>
       <c r="H27" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="I27" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="K27" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L27" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N27" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>488</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28">
@@ -2627,43 +2627,43 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="G28" t="n">
-        <v>310</v>
+        <v>155</v>
       </c>
       <c r="H28" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="I28" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J28" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="K28" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="N28" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="O28" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="P28" t="n">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1114</v>
+        <v>557</v>
       </c>
     </row>
     <row r="29">
@@ -2706,43 +2706,43 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>1080</v>
+        <v>540</v>
       </c>
       <c r="E29" t="n">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="F29" t="n">
-        <v>926</v>
+        <v>463</v>
       </c>
       <c r="G29" t="n">
-        <v>1870</v>
+        <v>935</v>
       </c>
       <c r="H29" t="n">
-        <v>924</v>
+        <v>462</v>
       </c>
       <c r="I29" t="n">
-        <v>558</v>
+        <v>279</v>
       </c>
       <c r="J29" t="n">
-        <v>1580</v>
+        <v>790</v>
       </c>
       <c r="K29" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="L29" t="n">
-        <v>568</v>
+        <v>284</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>344</v>
+        <v>172</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>9100</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="30">
@@ -2785,46 +2785,46 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>1074</v>
+        <v>537</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>542</v>
+        <v>271</v>
       </c>
       <c r="G30" t="n">
-        <v>1208</v>
+        <v>604</v>
       </c>
       <c r="H30" t="n">
-        <v>1042</v>
+        <v>521</v>
       </c>
       <c r="I30" t="n">
-        <v>476</v>
+        <v>238</v>
       </c>
       <c r="J30" t="n">
-        <v>656</v>
+        <v>328</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>542</v>
+        <v>271</v>
       </c>
       <c r="M30" t="n">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="N30" t="n">
-        <v>732</v>
+        <v>366</v>
       </c>
       <c r="O30" t="n">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>6966</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="31">
@@ -2864,37 +2864,37 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>594</v>
+        <v>297</v>
       </c>
       <c r="E31" t="n">
-        <v>344</v>
+        <v>172</v>
       </c>
       <c r="F31" t="n">
-        <v>1122</v>
+        <v>561</v>
       </c>
       <c r="G31" t="n">
-        <v>1472</v>
+        <v>736</v>
       </c>
       <c r="H31" t="n">
-        <v>1638</v>
+        <v>819</v>
       </c>
       <c r="I31" t="n">
-        <v>752</v>
+        <v>376</v>
       </c>
       <c r="J31" t="n">
-        <v>1220</v>
+        <v>610</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>986</v>
+        <v>493</v>
       </c>
       <c r="M31" t="n">
-        <v>304</v>
+        <v>152</v>
       </c>
       <c r="N31" t="n">
-        <v>1196</v>
+        <v>598</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>364</v>
+        <v>182</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>9992</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="32">
@@ -2943,46 +2943,46 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>986</v>
+        <v>493</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>2748</v>
+        <v>1374</v>
       </c>
       <c r="G32" t="n">
-        <v>4266</v>
+        <v>2133</v>
       </c>
       <c r="H32" t="n">
-        <v>2672</v>
+        <v>1336</v>
       </c>
       <c r="I32" t="n">
-        <v>1960</v>
+        <v>980</v>
       </c>
       <c r="J32" t="n">
-        <v>4034</v>
+        <v>2017</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1850</v>
+        <v>925</v>
       </c>
       <c r="M32" t="n">
-        <v>1084</v>
+        <v>542</v>
       </c>
       <c r="N32" t="n">
-        <v>2686</v>
+        <v>1343</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1344</v>
+        <v>672</v>
       </c>
       <c r="Q32" t="n">
-        <v>684</v>
+        <v>342</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>24314</v>
+        <v>12157</v>
       </c>
     </row>
     <row r="33">
@@ -3022,49 +3022,49 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>1326</v>
+        <v>663</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>4756</v>
+        <v>2378</v>
       </c>
       <c r="G33" t="n">
-        <v>4842</v>
+        <v>2421</v>
       </c>
       <c r="H33" t="n">
-        <v>5770</v>
+        <v>2885</v>
       </c>
       <c r="I33" t="n">
-        <v>1720</v>
+        <v>860</v>
       </c>
       <c r="J33" t="n">
-        <v>4104</v>
+        <v>2052</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>3034</v>
+        <v>1517</v>
       </c>
       <c r="M33" t="n">
-        <v>1340</v>
+        <v>670</v>
       </c>
       <c r="N33" t="n">
-        <v>2704</v>
+        <v>1352</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>802</v>
+        <v>401</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1134</v>
+        <v>567</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>31532</v>
+        <v>15766</v>
       </c>
     </row>
     <row r="34">
@@ -3101,37 +3101,37 @@
         <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>1018</v>
+        <v>509</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1372</v>
+        <v>686</v>
       </c>
       <c r="G34" t="n">
-        <v>2186</v>
+        <v>1093</v>
       </c>
       <c r="H34" t="n">
-        <v>1724</v>
+        <v>862</v>
       </c>
       <c r="I34" t="n">
-        <v>1072</v>
+        <v>536</v>
       </c>
       <c r="J34" t="n">
-        <v>1592</v>
+        <v>796</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>908</v>
+        <v>454</v>
       </c>
       <c r="M34" t="n">
-        <v>438</v>
+        <v>219</v>
       </c>
       <c r="N34" t="n">
-        <v>1716</v>
+        <v>858</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>382</v>
+        <v>191</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>332</v>
+        <v>166</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>12740</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="35">
@@ -3180,46 +3180,46 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>770</v>
+        <v>385</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>670</v>
+        <v>335</v>
       </c>
       <c r="G35" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="H35" t="n">
-        <v>814</v>
+        <v>407</v>
       </c>
       <c r="I35" t="n">
-        <v>336</v>
+        <v>168</v>
       </c>
       <c r="J35" t="n">
-        <v>572</v>
+        <v>286</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>498</v>
+        <v>249</v>
       </c>
       <c r="M35" t="n">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="N35" t="n">
-        <v>568</v>
+        <v>284</v>
       </c>
       <c r="O35" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>5746</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="36">
@@ -3259,37 +3259,37 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="E36" t="n">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G36" t="n">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="H36" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="I36" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J36" t="n">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="K36" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="L36" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M36" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="N36" t="n">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>1698</v>
+        <v>849</v>
       </c>
     </row>
     <row r="37">
@@ -3338,37 +3338,37 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="E37" t="n">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="F37" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="G37" t="n">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="H37" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="I37" t="n">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="J37" t="n">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="K37" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L37" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1080</v>
+        <v>540</v>
       </c>
     </row>
     <row r="38">
@@ -3417,37 +3417,37 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G38" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="H38" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I38" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J38" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="K38" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="L38" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M38" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N38" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>364</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39">
@@ -3496,40 +3496,40 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="G39" t="n">
-        <v>226</v>
+        <v>113</v>
       </c>
       <c r="H39" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I39" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J39" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="K39" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L39" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M39" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N39" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="O39" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>632</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40">
@@ -3575,40 +3575,40 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="G40" t="n">
-        <v>690</v>
+        <v>345</v>
       </c>
       <c r="H40" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="I40" t="n">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J40" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="K40" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="L40" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M40" t="n">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="N40" t="n">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="O40" t="n">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>2010</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="41">
@@ -3654,43 +3654,43 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>878</v>
+        <v>439</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>898</v>
+        <v>449</v>
       </c>
       <c r="G41" t="n">
-        <v>1346</v>
+        <v>673</v>
       </c>
       <c r="H41" t="n">
-        <v>1064</v>
+        <v>532</v>
       </c>
       <c r="I41" t="n">
-        <v>458</v>
+        <v>229</v>
       </c>
       <c r="J41" t="n">
-        <v>1304</v>
+        <v>652</v>
       </c>
       <c r="K41" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="L41" t="n">
-        <v>506</v>
+        <v>253</v>
       </c>
       <c r="M41" t="n">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="N41" t="n">
-        <v>1002</v>
+        <v>501</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>238</v>
+        <v>119</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>8158</v>
+        <v>4079</v>
       </c>
     </row>
     <row r="42">
@@ -3733,46 +3733,46 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>868</v>
+        <v>434</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>760</v>
+        <v>380</v>
       </c>
       <c r="G42" t="n">
-        <v>1638</v>
+        <v>819</v>
       </c>
       <c r="H42" t="n">
-        <v>1458</v>
+        <v>729</v>
       </c>
       <c r="I42" t="n">
-        <v>828</v>
+        <v>414</v>
       </c>
       <c r="J42" t="n">
-        <v>728</v>
+        <v>364</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>592</v>
+        <v>296</v>
       </c>
       <c r="M42" t="n">
-        <v>348</v>
+        <v>174</v>
       </c>
       <c r="N42" t="n">
-        <v>860</v>
+        <v>430</v>
       </c>
       <c r="O42" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>8598</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="43">
@@ -3812,43 +3812,43 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>574</v>
+        <v>287</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1072</v>
+        <v>536</v>
       </c>
       <c r="G43" t="n">
-        <v>1958</v>
+        <v>979</v>
       </c>
       <c r="H43" t="n">
-        <v>1696</v>
+        <v>848</v>
       </c>
       <c r="I43" t="n">
-        <v>798</v>
+        <v>399</v>
       </c>
       <c r="J43" t="n">
-        <v>1252</v>
+        <v>626</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>970</v>
+        <v>485</v>
       </c>
       <c r="M43" t="n">
-        <v>408</v>
+        <v>204</v>
       </c>
       <c r="N43" t="n">
-        <v>1346</v>
+        <v>673</v>
       </c>
       <c r="O43" t="n">
-        <v>302</v>
+        <v>151</v>
       </c>
       <c r="P43" t="n">
-        <v>362</v>
+        <v>181</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>10738</v>
+        <v>5369</v>
       </c>
     </row>
     <row r="44">
@@ -3891,46 +3891,46 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>1026</v>
+        <v>513</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2688</v>
+        <v>1344</v>
       </c>
       <c r="G44" t="n">
-        <v>4398</v>
+        <v>2199</v>
       </c>
       <c r="H44" t="n">
-        <v>2490</v>
+        <v>1245</v>
       </c>
       <c r="I44" t="n">
-        <v>2274</v>
+        <v>1137</v>
       </c>
       <c r="J44" t="n">
-        <v>3910</v>
+        <v>1955</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1870</v>
+        <v>935</v>
       </c>
       <c r="M44" t="n">
-        <v>968</v>
+        <v>484</v>
       </c>
       <c r="N44" t="n">
-        <v>2738</v>
+        <v>1369</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1324</v>
+        <v>662</v>
       </c>
       <c r="Q44" t="n">
-        <v>666</v>
+        <v>333</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>24352</v>
+        <v>12176</v>
       </c>
     </row>
     <row r="45">
@@ -3970,37 +3970,37 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>1366</v>
+        <v>683</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>5490</v>
+        <v>2745</v>
       </c>
       <c r="G45" t="n">
-        <v>5372</v>
+        <v>2686</v>
       </c>
       <c r="H45" t="n">
-        <v>5622</v>
+        <v>2811</v>
       </c>
       <c r="I45" t="n">
-        <v>1662</v>
+        <v>831</v>
       </c>
       <c r="J45" t="n">
-        <v>4348</v>
+        <v>2174</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>2460</v>
+        <v>1230</v>
       </c>
       <c r="M45" t="n">
-        <v>1386</v>
+        <v>693</v>
       </c>
       <c r="N45" t="n">
-        <v>2974</v>
+        <v>1487</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -4009,10 +4009,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>762</v>
+        <v>381</v>
       </c>
       <c r="R45" t="n">
-        <v>1218</v>
+        <v>609</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>32660</v>
+        <v>16330</v>
       </c>
     </row>
     <row r="46">
@@ -4049,46 +4049,46 @@
         <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>1382</v>
+        <v>691</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1440</v>
+        <v>720</v>
       </c>
       <c r="G46" t="n">
-        <v>2346</v>
+        <v>1173</v>
       </c>
       <c r="H46" t="n">
-        <v>1814</v>
+        <v>907</v>
       </c>
       <c r="I46" t="n">
-        <v>1110</v>
+        <v>555</v>
       </c>
       <c r="J46" t="n">
-        <v>1796</v>
+        <v>898</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>884</v>
+        <v>442</v>
       </c>
       <c r="M46" t="n">
-        <v>566</v>
+        <v>283</v>
       </c>
       <c r="N46" t="n">
-        <v>1572</v>
+        <v>786</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>290</v>
+        <v>145</v>
       </c>
       <c r="Q46" t="n">
-        <v>412</v>
+        <v>206</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>13612</v>
+        <v>6806</v>
       </c>
     </row>
     <row r="47">
@@ -18412,6 +18412,85 @@
       </c>
       <c r="Y227" t="n">
         <v>4667</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C228" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>145</v>
+      </c>
+      <c r="E228" t="n">
+        <v>13</v>
+      </c>
+      <c r="F228" t="n">
+        <v>130</v>
+      </c>
+      <c r="G228" t="n">
+        <v>84</v>
+      </c>
+      <c r="H228" t="n">
+        <v>76</v>
+      </c>
+      <c r="I228" t="n">
+        <v>26</v>
+      </c>
+      <c r="J228" t="n">
+        <v>179</v>
+      </c>
+      <c r="K228" t="n">
+        <v>43</v>
+      </c>
+      <c r="L228" t="n">
+        <v>12</v>
+      </c>
+      <c r="M228" t="n">
+        <v>27</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" t="n">
+        <v>75</v>
+      </c>
+      <c r="P228" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>17</v>
+      </c>
+      <c r="R228" t="n">
+        <v>35</v>
+      </c>
+      <c r="S228" t="n">
+        <v>8</v>
+      </c>
+      <c r="T228" t="n">
+        <v>5</v>
+      </c>
+      <c r="U228" t="n">
+        <v>0</v>
+      </c>
+      <c r="V228" t="n">
+        <v>15</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1110</v>
+      </c>
+      <c r="X228" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
